--- a/data/heat_map_bydel_plotting_values.xlsx
+++ b/data/heat_map_bydel_plotting_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peder\Github\Applied-data-science\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89E7FA-DDA6-4B1C-8C9C-67463D6BABBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF4656C-2DC7-47A8-8EB3-B85405F7D66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Sagene</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Søndre Nordstrand</t>
+  </si>
+  <si>
+    <t>neighbourhood_group</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -147,6 +150,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -175,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -196,6 +204,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,281 +548,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76A97D4-2088-45AD-BE59-E7D58BCD5A72}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
         <v>200</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
         <v>300</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
         <v>400</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
         <v>500</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
         <v>600</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
         <v>700</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
         <v>800</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
         <v>900</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>1000</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
         <v>1100</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6">
         <v>1200</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
         <v>1300</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
         <v>1400</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
         <v>50</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6">
         <v>1600</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
@@ -1070,12 +1120,12 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
